--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2576.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2576.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.90387590186227</v>
+        <v>0.7095420360565186</v>
       </c>
       <c r="B1">
-        <v>1.407568365511336</v>
+        <v>3.983672857284546</v>
       </c>
       <c r="C1">
-        <v>3.336292567906821</v>
+        <v>5.693912982940674</v>
       </c>
       <c r="D1">
-        <v>2.278097433643069</v>
+        <v>1.231135487556458</v>
       </c>
       <c r="E1">
-        <v>0.8913349103621881</v>
+        <v>0.7111010551452637</v>
       </c>
     </row>
   </sheetData>
